--- a/trunk/schedules/Erica.xlsx
+++ b/trunk/schedules/Erica.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <r>
       <t>Biomedical Design Project</t>
@@ -40,11 +40,6 @@
       </rPr>
       <t>Team Meeting</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pilates Reformer
-? ? ? ? ?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1270,6 +1265,114 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1305,114 +1408,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1745,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1761,75 +1756,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="A1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="16" thickTop="1" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1">
       <c r="A3" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="F3" s="32" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" thickBot="1">
       <c r="A4" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" ht="27" customHeight="1" thickBot="1">
       <c r="A5" s="13">
         <v>0.375</v>
       </c>
-      <c r="B5" s="69" t="s">
-        <v>7</v>
+      <c r="B5" s="34" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="71" t="s">
-        <v>7</v>
+      <c r="D5" s="36" t="s">
+        <v>6</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -1838,13 +1833,13 @@
       <c r="A6" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="56" t="s">
-        <v>8</v>
+      <c r="B6" s="35"/>
+      <c r="C6" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="58" t="s">
+        <v>7</v>
       </c>
       <c r="F6" s="21"/>
     </row>
@@ -1853,11 +1848,11 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="57"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="49" t="s">
-        <v>13</v>
+      <c r="E7" s="59"/>
+      <c r="F7" s="55" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27" customHeight="1" thickBot="1">
@@ -1865,85 +1860,85 @@
         <v>0.4375</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="58"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="50"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1">
       <c r="A9" s="13">
         <v>0.45833333333333298</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="59" t="s">
-        <v>9</v>
+      <c r="C9" s="46" t="s">
+        <v>8</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="50"/>
+      <c r="E9" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6" ht="27" customHeight="1" thickBot="1">
       <c r="A10" s="14">
         <v>0.47916666666666702</v>
       </c>
       <c r="B10" s="23"/>
-      <c r="C10" s="60"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="51"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1">
       <c r="A11" s="13">
         <v>0.5</v>
       </c>
-      <c r="B11" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="54" t="s">
-        <v>6</v>
+      <c r="B11" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="44" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="24"/>
-      <c r="D12" s="55"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="55"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1">
       <c r="A13" s="13">
         <v>0.54166666666666696</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="68" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="27" customHeight="1" thickBot="1">
+    <row r="14" spans="1:6" ht="27" customHeight="1">
       <c r="A14" s="14">
         <v>0.5625</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="27" customHeight="1" thickBot="1">
@@ -1951,62 +1946,60 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="37" t="s">
-        <v>1</v>
-      </c>
+      <c r="C15" s="69"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" thickBot="1">
       <c r="A16" s="14">
         <v>0.60416666666666696</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="38"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="27" customHeight="1">
       <c r="A17" s="13">
         <v>0.625</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="27" customHeight="1" thickBot="1">
       <c r="A18" s="14">
         <v>0.64583333333333404</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="36"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="27" customHeight="1">
       <c r="A19" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="44" t="s">
+      <c r="B19" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="53" t="s">
         <v>11</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>12</v>
       </c>
       <c r="F19" s="6"/>
     </row>
@@ -2014,10 +2007,10 @@
       <c r="A20" s="14">
         <v>0.6875</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="48"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="54"/>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="27" customHeight="1">
@@ -2025,7 +2018,7 @@
         <v>0.70833333333333404</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="45"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
@@ -2035,7 +2028,7 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="45"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="11"/>
       <c r="E22" s="22"/>
       <c r="F22" s="12"/>
@@ -2045,10 +2038,10 @@
         <v>0.75</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="46"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="25" t="s">
-        <v>15</v>
+      <c r="E23" s="61" t="s">
+        <v>14</v>
       </c>
       <c r="F23" s="6"/>
     </row>
@@ -2057,11 +2050,11 @@
         <v>0.77083333333333404</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="25" t="s">
-        <v>16</v>
+      <c r="C24" s="61" t="s">
+        <v>15</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="28"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="27" customHeight="1">
@@ -2069,9 +2062,9 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="26"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="28"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="27" customHeight="1">
@@ -2079,9 +2072,9 @@
         <v>0.812500000000001</v>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="26"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="28"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="27" customHeight="1">
@@ -2089,9 +2082,9 @@
         <v>0.83333333333333404</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="26"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="28"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="27" customHeight="1" thickBot="1">
@@ -2099,9 +2092,9 @@
         <v>0.85416666666666696</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="27"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="27" customHeight="1" thickBot="1">
@@ -2116,20 +2109,12 @@
     </row>
     <row r="30" spans="1:6" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="F15:F16"/>
+  <mergeCells count="27">
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E18"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D13:D15"/>
@@ -2140,11 +2125,18 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="E9:E11"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.49" right="0.51" top="0.40944881889763785" bottom="0.40944881889763785" header="0.5" footer="0.5"/>
